--- a/final_results.xlsx
+++ b/final_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/captainzhang/Documents/Research/scheduling/Drone/Drone_route_plainning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9611DB-81EE-A34B-8A74-151AFF956448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ACA5CC-6946-444E-B30F-38D87A4AAD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{A05B3BEE-5D93-3848-A46A-0DE79005B028}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>location</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Our method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random action </t>
   </si>
   <si>
     <t xml:space="preserve">Q-learning </t>
@@ -93,9 +90,6 @@
     <t>Our method / LP</t>
   </si>
   <si>
-    <t>Random action / LP</t>
-  </si>
-  <si>
     <t>result in Mill 1106 our method</t>
   </si>
   <si>
@@ -104,12 +98,15 @@
   <si>
     <t>result in Mill 1106 random without action mask</t>
   </si>
+  <si>
+    <t>Q-learning / LP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -143,6 +140,13 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3" tint="0.499984740745262"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -322,7 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -330,6 +334,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -386,19 +394,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,391 +740,357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60996FD8-C15C-5D4A-A563-CCD2E6C02DBB}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="159" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView zoomScale="142" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="10.1640625" customWidth="1"/>
+    <col min="1" max="7" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="25" t="s">
+    <row r="1" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="25" t="s">
+      <c r="F1" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="31">
+        <v>5</v>
+      </c>
+      <c r="B2" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="25">
+        <v>371.65699999999998</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="22">
+        <v>369.2</v>
+      </c>
+      <c r="F2" s="36">
+        <f>C2/E2</f>
+        <v>1.0066549295774647</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="31">
+        <v>5</v>
+      </c>
+      <c r="B3" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="26">
+        <v>371.06324999999998</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="22">
+        <v>384.5</v>
+      </c>
+      <c r="F3" s="36">
+        <f>C3/E3</f>
+        <v>0.96505396618985695</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="31">
+        <v>5</v>
+      </c>
+      <c r="B4" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="C4" s="26">
+        <v>377.13499999999999</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="22">
+        <v>399.79999999999899</v>
+      </c>
+      <c r="F4" s="36">
+        <f>C4/E4</f>
+        <v>0.94330915457729103</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="31">
+        <v>5</v>
+      </c>
+      <c r="B5" s="31">
+        <v>1</v>
+      </c>
+      <c r="C5" s="26">
+        <v>396</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="22">
+        <v>410</v>
+      </c>
+      <c r="F5" s="36">
+        <f>C5/E5</f>
+        <v>0.96585365853658534</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="32">
+        <v>10</v>
+      </c>
+      <c r="B6" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="25">
+        <v>1472.3657499999999</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="21">
+        <v>1512</v>
+      </c>
+      <c r="F6" s="37">
+        <f>C6/E6</f>
+        <v>0.97378687169312161</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="31">
+        <v>10</v>
+      </c>
+      <c r="B7" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="26">
+        <v>1511.1704999999999</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="22">
+        <v>1556</v>
+      </c>
+      <c r="F7" s="34">
+        <f>C7/E7</f>
+        <v>0.97118926735218503</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="31">
+        <v>10</v>
+      </c>
+      <c r="B8" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="C8" s="26">
+        <v>1497.431</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="22">
+        <v>1579.99999999999</v>
+      </c>
+      <c r="F8" s="34">
+        <f>C8/E8</f>
+        <v>0.9477411392405124</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="33">
+        <v>10</v>
+      </c>
+      <c r="B9" s="33">
+        <v>1</v>
+      </c>
+      <c r="C9" s="27">
+        <v>1531.75</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="23">
+        <v>1596</v>
+      </c>
+      <c r="F9" s="35">
+        <f>C9/E9</f>
+        <v>0.95974310776942351</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="32">
+        <v>20</v>
+      </c>
+      <c r="B10" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="25">
+        <v>1982.30375</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="21">
+        <v>2146.6</v>
+      </c>
+      <c r="F10" s="34">
+        <f>C10/E10</f>
+        <v>0.92346210286033736</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="31">
+        <v>20</v>
+      </c>
+      <c r="B11" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="26">
+        <v>1901.2915</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="E11" s="22">
+        <v>2186.5</v>
+      </c>
+      <c r="F11" s="34">
+        <f>C11/E11</f>
+        <v>0.86955934141321745</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="31">
+        <v>20</v>
+      </c>
+      <c r="B12" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="C12" s="26">
+        <v>2061.125</v>
+      </c>
+      <c r="D12" s="40"/>
+      <c r="E12" s="22">
+        <v>2228.3999999999901</v>
+      </c>
+      <c r="F12" s="34">
+        <f>C12/E12</f>
+        <v>0.92493493089212397</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="33">
+        <v>20</v>
+      </c>
+      <c r="B13" s="33">
+        <v>1</v>
+      </c>
+      <c r="C13" s="27">
+        <v>1927.75</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="23">
+        <v>2258</v>
+      </c>
+      <c r="F13" s="35">
+        <f>C13/E13</f>
+        <v>0.85374224977856505</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="47"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="27">
-        <v>5</v>
-      </c>
-      <c r="B2" s="27">
-        <v>0.2</v>
-      </c>
-      <c r="C2" s="21">
-        <v>371.65699999999998</v>
-      </c>
-      <c r="D2" s="39">
-        <v>262.33999999999997</v>
-      </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="18">
-        <v>369.2</v>
-      </c>
-      <c r="G2" s="32">
-        <f>C2/F2</f>
-        <v>1.0066549295774647</v>
-      </c>
-      <c r="H2" s="33">
-        <f>D2/F2</f>
-        <v>0.71056338028169008</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="27">
-        <v>5</v>
-      </c>
-      <c r="B3" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="C3" s="22">
-        <v>371.06324999999998</v>
-      </c>
-      <c r="D3" s="39">
-        <v>-9722.41</v>
-      </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="18">
-        <v>384.5</v>
-      </c>
-      <c r="G3" s="32">
-        <f t="shared" ref="G3:G13" si="0">C3/F3</f>
-        <v>0.96505396618985695</v>
-      </c>
-      <c r="H3" s="30">
-        <f t="shared" ref="H3:H13" si="1">D3/F3</f>
-        <v>-25.285851755526657</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="27">
-        <v>5</v>
-      </c>
-      <c r="B4" s="27">
-        <v>0.8</v>
-      </c>
-      <c r="C4" s="22">
-        <v>377.13499999999999</v>
-      </c>
-      <c r="D4" s="39">
-        <v>-9714.27</v>
-      </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="18">
-        <v>399.79999999999899</v>
-      </c>
-      <c r="G4" s="32">
-        <f t="shared" si="0"/>
-        <v>0.94330915457729103</v>
-      </c>
-      <c r="H4" s="30">
-        <f t="shared" si="1"/>
-        <v>-24.297823911956041</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="27">
-        <v>5</v>
-      </c>
-      <c r="B5" s="27">
-        <v>1</v>
-      </c>
-      <c r="C5" s="22">
-        <v>396</v>
-      </c>
-      <c r="D5" s="39">
-        <v>-9645.75</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="18">
-        <v>410</v>
-      </c>
-      <c r="G5" s="32">
-        <f t="shared" si="0"/>
-        <v>0.96585365853658534</v>
-      </c>
-      <c r="H5" s="31">
-        <f t="shared" si="1"/>
-        <v>-23.526219512195123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="28">
-        <v>10</v>
-      </c>
-      <c r="B6" s="28">
-        <v>0.2</v>
-      </c>
-      <c r="C6" s="21">
-        <v>1472.3657499999999</v>
-      </c>
-      <c r="D6" s="44">
-        <v>-9450.02</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="17">
-        <v>1512</v>
-      </c>
-      <c r="G6" s="33">
-        <f t="shared" si="0"/>
-        <v>0.97378687169312161</v>
-      </c>
-      <c r="H6" s="33">
-        <f t="shared" si="1"/>
-        <v>-6.2500132275132279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="27">
-        <v>10</v>
-      </c>
-      <c r="B7" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="22">
-        <v>1511.1704999999999</v>
-      </c>
-      <c r="D7" s="45">
-        <v>-9539.41</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="18">
-        <v>1556</v>
-      </c>
-      <c r="G7" s="30">
-        <f t="shared" si="0"/>
-        <v>0.97118926735218503</v>
-      </c>
-      <c r="H7" s="30">
-        <f t="shared" si="1"/>
-        <v>-6.1307262210796916</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="27">
-        <v>10</v>
-      </c>
-      <c r="B8" s="27">
-        <v>0.8</v>
-      </c>
-      <c r="C8" s="22">
-        <v>1497.431</v>
-      </c>
-      <c r="D8" s="45">
-        <v>-9253.77</v>
-      </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="18">
-        <v>1579.99999999999</v>
-      </c>
-      <c r="G8" s="30">
-        <f t="shared" si="0"/>
-        <v>0.9477411392405124</v>
-      </c>
-      <c r="H8" s="30">
-        <f t="shared" si="1"/>
-        <v>-5.8568164556962401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="29">
-        <v>10</v>
-      </c>
-      <c r="B9" s="29">
-        <v>1</v>
-      </c>
-      <c r="C9" s="23">
-        <v>1531.75</v>
-      </c>
-      <c r="D9" s="46">
-        <v>-9261.5</v>
-      </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="19">
-        <v>1596</v>
-      </c>
-      <c r="G9" s="31">
-        <f t="shared" si="0"/>
-        <v>0.95974310776942351</v>
-      </c>
-      <c r="H9" s="31">
-        <f t="shared" si="1"/>
-        <v>-5.8029448621553881</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="28">
-        <v>20</v>
-      </c>
-      <c r="B10" s="28">
-        <v>0.2</v>
-      </c>
-      <c r="C10" s="21">
-        <v>1982.30375</v>
-      </c>
-      <c r="D10" s="39">
-        <v>366.93</v>
-      </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="17">
-        <v>2146.6</v>
-      </c>
-      <c r="G10" s="30">
-        <f t="shared" si="0"/>
-        <v>0.92346210286033736</v>
-      </c>
-      <c r="H10" s="33">
-        <f t="shared" si="1"/>
-        <v>0.17093543277741546</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="27">
-        <v>20</v>
-      </c>
-      <c r="B11" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="C11" s="22">
-        <v>1901.2915</v>
-      </c>
-      <c r="D11" s="39">
-        <v>339.15</v>
-      </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="18">
-        <v>2186.5</v>
-      </c>
-      <c r="G11" s="30">
-        <f t="shared" si="0"/>
-        <v>0.86955934141321745</v>
-      </c>
-      <c r="H11" s="30">
-        <f t="shared" si="1"/>
-        <v>0.15511090784358564</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="27">
-        <v>20</v>
-      </c>
-      <c r="B12" s="27">
-        <v>0.8</v>
-      </c>
-      <c r="C12" s="22">
-        <v>2061.125</v>
-      </c>
-      <c r="D12" s="39">
-        <v>224.91</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="18">
-        <v>2228.3999999999901</v>
-      </c>
-      <c r="G12" s="30">
-        <f t="shared" si="0"/>
-        <v>0.92493493089212397</v>
-      </c>
-      <c r="H12" s="30">
-        <f t="shared" si="1"/>
-        <v>0.10092891760904729</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
-        <v>20</v>
-      </c>
-      <c r="B13" s="29">
-        <v>1</v>
-      </c>
-      <c r="C13" s="23">
-        <v>1927.75</v>
-      </c>
-      <c r="D13" s="40">
-        <v>384.5</v>
-      </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="19">
-        <v>2258</v>
-      </c>
-      <c r="G13" s="31">
-        <f t="shared" si="0"/>
-        <v>0.85374224977856505</v>
-      </c>
-      <c r="H13" s="31">
-        <f t="shared" si="1"/>
-        <v>0.17028343666961912</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -1128,11 +1100,11 @@
       <c r="C18" s="2">
         <v>371.65699999999998</v>
       </c>
-      <c r="D18" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -1142,11 +1114,11 @@
       <c r="C19" s="2">
         <v>371.06324999999998</v>
       </c>
-      <c r="D19" s="3">
-        <v>4.383</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -1156,11 +1128,8 @@
       <c r="C20" s="2">
         <v>377.13499999999999</v>
       </c>
-      <c r="D20" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>5</v>
       </c>
@@ -1170,11 +1139,8 @@
       <c r="C21" s="2">
         <v>396</v>
       </c>
-      <c r="D21" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>10</v>
       </c>
@@ -1184,11 +1150,8 @@
       <c r="C22" s="2">
         <v>1472.3657499999999</v>
       </c>
-      <c r="D22" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>10</v>
       </c>
@@ -1198,11 +1161,8 @@
       <c r="C23" s="2">
         <v>1511.1704999999999</v>
       </c>
-      <c r="D23" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>10</v>
       </c>
@@ -1212,11 +1172,8 @@
       <c r="C24" s="2">
         <v>1497.431</v>
       </c>
-      <c r="D24" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>10</v>
       </c>
@@ -1226,11 +1183,8 @@
       <c r="C25" s="2">
         <v>1531.75</v>
       </c>
-      <c r="D25" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>20</v>
       </c>
@@ -1240,11 +1194,8 @@
       <c r="C26" s="2">
         <v>1982.30375</v>
       </c>
-      <c r="D26" s="3">
-        <v>18.986999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>20</v>
       </c>
@@ -1254,11 +1205,8 @@
       <c r="C27" s="2">
         <v>1901.2915</v>
       </c>
-      <c r="D27" s="3">
-        <v>17.986999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>20</v>
       </c>
@@ -1268,11 +1216,8 @@
       <c r="C28" s="2">
         <v>2061.125</v>
       </c>
-      <c r="D28" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>20</v>
       </c>
@@ -1282,373 +1227,289 @@
       <c r="C29" s="5">
         <v>1927.75</v>
       </c>
-      <c r="D29" s="6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="F32" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="38" t="s">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="E32" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="42">
+        <v>5</v>
+      </c>
+      <c r="B34" s="49">
+        <v>0.2</v>
+      </c>
+      <c r="C34" s="49">
+        <v>351.84100000000001</v>
+      </c>
+      <c r="E34" s="42">
+        <v>5</v>
+      </c>
+      <c r="F34" s="49">
+        <v>0.2</v>
+      </c>
+      <c r="G34" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="42">
+        <v>5</v>
+      </c>
+      <c r="B35" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="C35" s="49">
+        <v>349.50599999999997</v>
+      </c>
+      <c r="E35" s="42">
+        <v>5</v>
+      </c>
+      <c r="F35" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="42">
+        <v>5</v>
+      </c>
+      <c r="B36" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="C36" s="49">
+        <v>391.137</v>
+      </c>
+      <c r="E36" s="42">
+        <v>5</v>
+      </c>
+      <c r="F36" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="G36" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="42">
+        <v>5</v>
+      </c>
+      <c r="B37" s="49">
+        <v>1</v>
+      </c>
+      <c r="C37" s="49">
+        <v>399.5</v>
+      </c>
+      <c r="E37" s="42">
+        <v>5</v>
+      </c>
+      <c r="F37" s="49">
+        <v>1</v>
+      </c>
+      <c r="G37" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="42">
+        <v>10</v>
+      </c>
+      <c r="B38" s="49">
+        <v>0.2</v>
+      </c>
+      <c r="C38" s="49">
+        <v>1236.145</v>
+      </c>
+      <c r="E38" s="42">
+        <v>10</v>
+      </c>
+      <c r="F38" s="49">
+        <v>0.2</v>
+      </c>
+      <c r="G38" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="42">
+        <v>10</v>
+      </c>
+      <c r="B39" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="C39" s="49">
+        <v>1199.075</v>
+      </c>
+      <c r="E39" s="42">
+        <v>10</v>
+      </c>
+      <c r="F39" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="G39" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="42">
+        <v>10</v>
+      </c>
+      <c r="B40" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="C40" s="49">
+        <v>1474.8779999999999</v>
+      </c>
+      <c r="E40" s="42">
+        <v>10</v>
+      </c>
+      <c r="F40" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="G40" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="42">
+        <v>10</v>
+      </c>
+      <c r="B41" s="49">
+        <v>1</v>
+      </c>
+      <c r="C41" s="49">
+        <v>1455.75</v>
+      </c>
+      <c r="E41" s="42">
+        <v>10</v>
+      </c>
+      <c r="F41" s="49">
+        <v>1</v>
+      </c>
+      <c r="G41" s="49">
         <v>6</v>
       </c>
-      <c r="B33" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="H33" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="38">
-        <v>5</v>
-      </c>
-      <c r="B34" s="50">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="42">
+        <v>20</v>
+      </c>
+      <c r="B42" s="49">
         <v>0.2</v>
       </c>
-      <c r="C34" s="50">
-        <v>351.84100000000001</v>
-      </c>
-      <c r="D34" s="50">
-        <v>4</v>
-      </c>
-      <c r="F34" s="38">
-        <v>5</v>
-      </c>
-      <c r="G34" s="50">
+      <c r="C42" s="49">
+        <v>1753.0654999999999</v>
+      </c>
+      <c r="E42" s="42">
+        <v>20</v>
+      </c>
+      <c r="F42" s="49">
         <v>0.2</v>
       </c>
-      <c r="H34" s="50">
-        <v>262.33800000000002</v>
-      </c>
-      <c r="I34" s="50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="38">
-        <v>5</v>
-      </c>
-      <c r="B35" s="50">
+      <c r="G42" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="42">
+        <v>20</v>
+      </c>
+      <c r="B43" s="49">
         <v>0.5</v>
       </c>
-      <c r="C35" s="50">
-        <v>349.50599999999997</v>
-      </c>
-      <c r="D35" s="50">
+      <c r="C43" s="49">
+        <v>1661.827</v>
+      </c>
+      <c r="E43" s="42">
+        <v>20</v>
+      </c>
+      <c r="F43" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="49">
         <v>3</v>
       </c>
-      <c r="F35" s="38">
-        <v>5</v>
-      </c>
-      <c r="G35" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="H35" s="50">
-        <v>-9722.4084999999995</v>
-      </c>
-      <c r="I35" s="50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="38">
-        <v>5</v>
-      </c>
-      <c r="B36" s="50">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="42">
+        <v>20</v>
+      </c>
+      <c r="B44" s="49">
         <v>0.8</v>
       </c>
-      <c r="C36" s="50">
-        <v>391.137</v>
-      </c>
-      <c r="D36" s="50">
-        <v>4.9619999999999997</v>
-      </c>
-      <c r="F36" s="38">
-        <v>5</v>
-      </c>
-      <c r="G36" s="50">
+      <c r="C44" s="49">
+        <v>1827.0809999999999</v>
+      </c>
+      <c r="E44" s="42">
+        <v>20</v>
+      </c>
+      <c r="F44" s="49">
         <v>0.8</v>
       </c>
-      <c r="H36" s="50">
-        <v>-9714.2659999999996</v>
-      </c>
-      <c r="I36" s="50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="38">
-        <v>5</v>
-      </c>
-      <c r="B37" s="50">
-        <v>1</v>
-      </c>
-      <c r="C37" s="50">
-        <v>399.5</v>
-      </c>
-      <c r="D37" s="50">
-        <v>5</v>
-      </c>
-      <c r="F37" s="38">
-        <v>5</v>
-      </c>
-      <c r="G37" s="50">
-        <v>1</v>
-      </c>
-      <c r="H37" s="50">
-        <v>-9645.75</v>
-      </c>
-      <c r="I37" s="50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="38">
-        <v>10</v>
-      </c>
-      <c r="B38" s="50">
-        <v>0.2</v>
-      </c>
-      <c r="C38" s="50">
-        <v>1236.145</v>
-      </c>
-      <c r="D38" s="50">
-        <v>10</v>
-      </c>
-      <c r="F38" s="38">
-        <v>10</v>
-      </c>
-      <c r="G38" s="50">
-        <v>0.2</v>
-      </c>
-      <c r="H38" s="50">
-        <v>-9450.0249999999996</v>
-      </c>
-      <c r="I38" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="38">
-        <v>10</v>
-      </c>
-      <c r="B39" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="C39" s="50">
-        <v>1199.075</v>
-      </c>
-      <c r="D39" s="50">
-        <v>9.8040000000000003</v>
-      </c>
-      <c r="F39" s="38">
-        <v>10</v>
-      </c>
-      <c r="G39" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="H39" s="50">
-        <v>-9539.4069999999992</v>
-      </c>
-      <c r="I39" s="50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="38">
-        <v>10</v>
-      </c>
-      <c r="B40" s="50">
-        <v>0.8</v>
-      </c>
-      <c r="C40" s="50">
-        <v>1474.8779999999999</v>
-      </c>
-      <c r="D40" s="50">
-        <v>10</v>
-      </c>
-      <c r="F40" s="38">
-        <v>10</v>
-      </c>
-      <c r="G40" s="50">
-        <v>0.8</v>
-      </c>
-      <c r="H40" s="50">
-        <v>-9253.7710000000006</v>
-      </c>
-      <c r="I40" s="50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="38">
-        <v>10</v>
-      </c>
-      <c r="B41" s="50">
-        <v>1</v>
-      </c>
-      <c r="C41" s="50">
-        <v>1455.75</v>
-      </c>
-      <c r="D41" s="50">
-        <v>9</v>
-      </c>
-      <c r="F41" s="38">
-        <v>10</v>
-      </c>
-      <c r="G41" s="50">
-        <v>1</v>
-      </c>
-      <c r="H41" s="50">
-        <v>-9261.5</v>
-      </c>
-      <c r="I41" s="50">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="38">
-        <v>20</v>
-      </c>
-      <c r="B42" s="50">
-        <v>0.2</v>
-      </c>
-      <c r="C42" s="50">
-        <v>1753.0654999999999</v>
-      </c>
-      <c r="D42" s="50">
-        <v>19.489999999999998</v>
-      </c>
-      <c r="F42" s="38">
-        <v>20</v>
-      </c>
-      <c r="G42" s="50">
-        <v>0.2</v>
-      </c>
-      <c r="H42" s="50">
-        <v>366.93299999999999</v>
-      </c>
-      <c r="I42" s="50">
+      <c r="G44" s="49">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="38">
-        <v>20</v>
-      </c>
-      <c r="B43" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="C43" s="50">
-        <v>1661.827</v>
-      </c>
-      <c r="D43" s="50">
-        <v>19</v>
-      </c>
-      <c r="F43" s="38">
-        <v>20</v>
-      </c>
-      <c r="G43" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="H43" s="50">
-        <v>339.14600000000002</v>
-      </c>
-      <c r="I43" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="38">
-        <v>20</v>
-      </c>
-      <c r="B44" s="50">
-        <v>0.8</v>
-      </c>
-      <c r="C44" s="50">
-        <v>1827.0809999999999</v>
-      </c>
-      <c r="D44" s="50">
-        <v>19</v>
-      </c>
-      <c r="F44" s="38">
-        <v>20</v>
-      </c>
-      <c r="G44" s="50">
-        <v>0.8</v>
-      </c>
-      <c r="H44" s="50">
-        <v>224.90899999999999</v>
-      </c>
-      <c r="I44" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="38">
-        <v>20</v>
-      </c>
-      <c r="B45" s="50">
-        <v>1</v>
-      </c>
-      <c r="C45" s="50">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="42">
+        <v>20</v>
+      </c>
+      <c r="B45" s="49">
+        <v>1</v>
+      </c>
+      <c r="C45" s="49">
         <v>1999.75</v>
       </c>
-      <c r="D45" s="50">
-        <v>20</v>
-      </c>
-      <c r="F45" s="38">
-        <v>20</v>
-      </c>
-      <c r="G45" s="50">
-        <v>1</v>
-      </c>
-      <c r="H45" s="50">
-        <v>384.5</v>
-      </c>
-      <c r="I45" s="50">
+      <c r="E45" s="42">
+        <v>20</v>
+      </c>
+      <c r="F45" s="49">
+        <v>1</v>
+      </c>
+      <c r="G45" s="49">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="E32:G32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1656,79 +1517,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A58DD4A-E730-6A46-998D-A09A850763AA}">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="170" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9.83203125" customWidth="1"/>
     <col min="3" max="9" width="11.5" customWidth="1"/>
-    <col min="11" max="17" width="12" style="11" customWidth="1"/>
+    <col min="11" max="17" width="12" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="8"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="12"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="14" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>9</v>
+      <c r="Q2" s="18" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -1747,30 +1608,30 @@
       <c r="E3" s="3">
         <v>4.5019999999999998</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="16">
-        <v>5</v>
-      </c>
-      <c r="L3" s="15">
+      <c r="I3" s="16"/>
+      <c r="J3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="20">
+        <v>5</v>
+      </c>
+      <c r="L3" s="19">
         <v>333.61099999999999</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="19">
         <v>369.44799999999998</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="19">
         <v>382.94549999999998</v>
       </c>
-      <c r="O3" s="51">
-        <v>159.874</v>
-      </c>
-      <c r="P3" s="51">
-        <v>306.69</v>
-      </c>
-      <c r="Q3" s="51">
-        <v>338.29899999999998</v>
+      <c r="O3" s="7">
+        <v>158.916</v>
+      </c>
+      <c r="P3" s="7">
+        <v>306.053</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>319.19600000000003</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -1789,27 +1650,27 @@
       <c r="E4" s="3">
         <v>4.5019999999999998</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="16">
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="20">
         <v>10</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="19">
         <v>1263.857</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="19">
         <v>1480.9712500000001</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="19">
         <v>1523.5335</v>
       </c>
-      <c r="O4" s="51">
+      <c r="O4" s="50">
         <v>460.25</v>
       </c>
-      <c r="P4" s="51">
+      <c r="P4" s="50">
         <v>548.23500000000001</v>
       </c>
-      <c r="Q4" s="51">
+      <c r="Q4" s="50">
         <v>811.56600000000003</v>
       </c>
     </row>
@@ -1829,27 +1690,27 @@
       <c r="E5" s="3">
         <v>5</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="16">
-        <v>20</v>
-      </c>
-      <c r="L5" s="15">
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="20">
+        <v>20</v>
+      </c>
+      <c r="L5" s="19">
         <v>1809.7492500000001</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="19">
         <v>1793.1144999999999</v>
       </c>
-      <c r="N5" s="15">
-        <v>1811.3440000000001</v>
-      </c>
-      <c r="O5" s="51">
+      <c r="N5" s="7">
+        <v>1983.6205</v>
+      </c>
+      <c r="O5" s="50">
         <v>140.93</v>
       </c>
-      <c r="P5" s="51">
+      <c r="P5" s="50">
         <v>524.33100000000002</v>
       </c>
-      <c r="Q5" s="51">
+      <c r="Q5" s="50">
         <v>596.64400000000001</v>
       </c>
     </row>
@@ -1869,29 +1730,29 @@
       <c r="E6" s="3">
         <v>9.1280000000000001</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="16">
-        <v>5</v>
-      </c>
-      <c r="L6" s="15">
+      <c r="I6" s="16"/>
+      <c r="J6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="20">
+        <v>5</v>
+      </c>
+      <c r="L6" s="19">
         <v>4.5019999999999998</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="19">
         <v>4.5019999999999998</v>
       </c>
-      <c r="N6" s="15">
-        <v>5</v>
-      </c>
-      <c r="O6" s="15">
+      <c r="N6" s="19">
+        <v>5</v>
+      </c>
+      <c r="O6" s="19">
         <v>2</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="19">
         <v>3</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6" s="19">
         <v>4</v>
       </c>
     </row>
@@ -1911,27 +1772,27 @@
       <c r="E7" s="3">
         <v>8.6069999999999993</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="16">
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="20">
         <v>10</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="19">
         <v>9.1280000000000001</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="19">
         <v>8.6069999999999993</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="19">
         <v>9</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O7" s="19">
         <v>3</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="19">
         <v>3</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q7" s="19">
         <v>4</v>
       </c>
     </row>
@@ -1951,27 +1812,27 @@
       <c r="E8" s="3">
         <v>9</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="16">
-        <v>20</v>
-      </c>
-      <c r="L8" s="15">
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="20">
+        <v>20</v>
+      </c>
+      <c r="L8" s="19">
         <v>19.483000000000001</v>
       </c>
-      <c r="M8" s="15">
-        <v>20</v>
-      </c>
-      <c r="N8" s="15">
-        <v>20</v>
-      </c>
-      <c r="O8" s="15">
+      <c r="M8" s="19">
+        <v>20</v>
+      </c>
+      <c r="N8" s="19">
+        <v>20</v>
+      </c>
+      <c r="O8" s="19">
         <v>2.5030000000000001</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="19">
         <v>4</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="19">
         <v>4</v>
       </c>
     </row>
@@ -1991,7 +1852,7 @@
       <c r="E9" s="3">
         <v>19.483000000000001</v>
       </c>
-      <c r="I9" s="12"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -2009,7 +1870,7 @@
       <c r="E10" s="3">
         <v>20</v>
       </c>
-      <c r="I10" s="12"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -2027,7 +1888,7 @@
       <c r="E11" s="3">
         <v>20</v>
       </c>
-      <c r="I11" s="12"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -2045,25 +1906,37 @@
       <c r="E12" s="3">
         <v>2</v>
       </c>
-      <c r="I12" s="12"/>
+      <c r="I12" s="16"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2">
+      <c r="A13" s="51">
+        <v>5</v>
+      </c>
+      <c r="B13" s="52">
         <v>5000</v>
       </c>
-      <c r="C13" s="2" t="b">
+      <c r="C13" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="52">
         <v>-9663.0840000000007</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="53">
         <v>3</v>
       </c>
-      <c r="I13" s="12"/>
+      <c r="I13" s="16"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -2081,7 +1954,13 @@
       <c r="E14" s="3">
         <v>4</v>
       </c>
-      <c r="I14" s="12"/>
+      <c r="I14" s="16"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -2099,7 +1978,7 @@
       <c r="E15" s="3">
         <v>3</v>
       </c>
-      <c r="J15" s="11"/>
+      <c r="J15" s="15"/>
       <c r="L15"/>
       <c r="M15"/>
       <c r="N15"/>
@@ -2142,19 +2021,19 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2">
+      <c r="A18" s="51">
+        <v>20</v>
+      </c>
+      <c r="B18" s="52">
         <v>1000</v>
       </c>
-      <c r="C18" s="2" t="b">
+      <c r="C18" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="52">
         <v>-4855.3924999999999</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="53">
         <v>2.5030000000000001</v>
       </c>
     </row>
@@ -2193,8 +2072,8 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
@@ -2329,7 +2208,7 @@
       <c r="A28">
         <v>1263.857</v>
       </c>
-      <c r="B28" s="11"/>
+      <c r="B28" s="15"/>
       <c r="H28">
         <v>9.1280000000000001</v>
       </c>
@@ -2344,7 +2223,7 @@
       <c r="A29">
         <v>1480.9712500000001</v>
       </c>
-      <c r="B29" s="11"/>
+      <c r="B29" s="15"/>
       <c r="H29">
         <v>8.6069999999999993</v>
       </c>
@@ -2359,7 +2238,7 @@
       <c r="A30">
         <v>1523.5335</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="15"/>
       <c r="H30">
         <v>9</v>
       </c>
@@ -2374,7 +2253,7 @@
       <c r="A31">
         <v>1809.7492500000001</v>
       </c>
-      <c r="B31" s="11"/>
+      <c r="B31" s="15"/>
       <c r="H31">
         <v>19.483000000000001</v>
       </c>
@@ -2389,7 +2268,7 @@
       <c r="A32">
         <v>1793.1144999999999</v>
       </c>
-      <c r="B32" s="11"/>
+      <c r="B32" s="15"/>
       <c r="H32">
         <v>20</v>
       </c>
@@ -2404,7 +2283,7 @@
       <c r="A33">
         <v>1811.3440000000001</v>
       </c>
-      <c r="B33" s="11"/>
+      <c r="B33" s="15"/>
       <c r="H33">
         <v>20</v>
       </c>
@@ -2419,7 +2298,7 @@
       <c r="A34">
         <v>159.874</v>
       </c>
-      <c r="B34" s="11"/>
+      <c r="B34" s="15"/>
       <c r="H34">
         <v>2</v>
       </c>
@@ -2434,7 +2313,7 @@
       <c r="A35">
         <v>-9663.0840000000007</v>
       </c>
-      <c r="B35" s="11"/>
+      <c r="B35" s="15"/>
       <c r="H35">
         <v>3</v>
       </c>
@@ -2449,7 +2328,7 @@
       <c r="A36">
         <v>338.29899999999998</v>
       </c>
-      <c r="B36" s="11"/>
+      <c r="B36" s="15"/>
       <c r="H36">
         <v>4</v>
       </c>
@@ -2464,7 +2343,7 @@
       <c r="A37">
         <v>460.25</v>
       </c>
-      <c r="B37" s="11"/>
+      <c r="B37" s="15"/>
       <c r="H37">
         <v>3</v>
       </c>
@@ -2479,7 +2358,7 @@
       <c r="A38">
         <v>548.23500000000001</v>
       </c>
-      <c r="B38" s="11"/>
+      <c r="B38" s="15"/>
       <c r="H38">
         <v>3</v>
       </c>
@@ -2494,7 +2373,7 @@
       <c r="A39">
         <v>811.56600000000003</v>
       </c>
-      <c r="B39" s="11"/>
+      <c r="B39" s="15"/>
       <c r="H39">
         <v>4</v>
       </c>
@@ -2509,7 +2388,7 @@
       <c r="A40">
         <v>-4855.3924999999999</v>
       </c>
-      <c r="B40" s="11"/>
+      <c r="B40" s="15"/>
       <c r="H40">
         <v>2.5030000000000001</v>
       </c>
@@ -2524,7 +2403,7 @@
       <c r="A41">
         <v>524.33100000000002</v>
       </c>
-      <c r="B41" s="11"/>
+      <c r="B41" s="15"/>
       <c r="H41">
         <v>4</v>
       </c>
@@ -2539,7 +2418,7 @@
       <c r="A42">
         <v>596.64400000000001</v>
       </c>
-      <c r="B42" s="11"/>
+      <c r="B42" s="15"/>
       <c r="H42">
         <v>4</v>
       </c>
@@ -2551,13 +2430,13 @@
       <c r="P42"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
@@ -2566,13 +2445,13 @@
       <c r="P43"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
@@ -2590,10 +2469,10 @@
       <c r="C45">
         <v>382.94549999999998</v>
       </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
       <c r="H45">
         <v>4.5019999999999998</v>
       </c>
@@ -2620,10 +2499,10 @@
       <c r="C46">
         <v>1523.5335</v>
       </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
       <c r="H46">
         <v>9.1280000000000001</v>
       </c>
@@ -2650,10 +2529,10 @@
       <c r="C47">
         <v>1811.3440000000001</v>
       </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
       <c r="H47">
         <v>19.483000000000001</v>
       </c>
@@ -2680,10 +2559,10 @@
       <c r="C48">
         <v>338.29899999999998</v>
       </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
       <c r="H48">
         <v>2</v>
       </c>
@@ -2710,10 +2589,10 @@
       <c r="C49">
         <v>811.56600000000003</v>
       </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
       <c r="H49">
         <v>3</v>
       </c>
@@ -2740,10 +2619,10 @@
       <c r="C50">
         <v>596.64400000000001</v>
       </c>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
       <c r="H50">
         <v>2.5030000000000001</v>
       </c>
@@ -2761,13 +2640,13 @@
       <c r="P50"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
@@ -2776,13 +2655,13 @@
       <c r="P51"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
       <c r="K52"/>
       <c r="L52"/>
       <c r="M52"/>
@@ -2791,13 +2670,13 @@
       <c r="P52"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
       <c r="K53"/>
       <c r="L53"/>
       <c r="M53"/>
@@ -2806,13 +2685,13 @@
       <c r="P53"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
       <c r="K54"/>
       <c r="L54"/>
       <c r="M54"/>
@@ -2821,19 +2700,444 @@
       <c r="P54"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
       <c r="K55"/>
       <c r="L55"/>
       <c r="M55"/>
       <c r="N55"/>
       <c r="O55"/>
       <c r="P55"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>5</v>
+      </c>
+      <c r="B56">
+        <v>1000</v>
+      </c>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>331.21499999999997</v>
+      </c>
+      <c r="E56">
+        <v>4.2430000000000003</v>
+      </c>
+      <c r="G56">
+        <v>331.21499999999997</v>
+      </c>
+      <c r="H56">
+        <v>1298.518</v>
+      </c>
+      <c r="I56">
+        <v>1896.287</v>
+      </c>
+      <c r="K56">
+        <v>331.21499999999997</v>
+      </c>
+      <c r="L56">
+        <v>370.27850000000001</v>
+      </c>
+      <c r="M56">
+        <v>382.30799999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <v>5000</v>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>370.27850000000001</v>
+      </c>
+      <c r="E57">
+        <v>4.234</v>
+      </c>
+      <c r="G57">
+        <v>370.27850000000001</v>
+      </c>
+      <c r="H57">
+        <v>1471.027</v>
+      </c>
+      <c r="I57">
+        <v>1562.8710000000001</v>
+      </c>
+      <c r="K57">
+        <v>1298.518</v>
+      </c>
+      <c r="L57">
+        <v>1471.027</v>
+      </c>
+      <c r="M57">
+        <v>1468.8309999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>10000</v>
+      </c>
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>382.30799999999999</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>382.30799999999999</v>
+      </c>
+      <c r="H58">
+        <v>1468.8309999999999</v>
+      </c>
+      <c r="I58">
+        <v>1983.6205</v>
+      </c>
+      <c r="K58">
+        <v>1896.287</v>
+      </c>
+      <c r="L58">
+        <v>1562.8710000000001</v>
+      </c>
+      <c r="M58">
+        <v>1983.6205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>10</v>
+      </c>
+      <c r="B59">
+        <v>1000</v>
+      </c>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1298.518</v>
+      </c>
+      <c r="E59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>10</v>
+      </c>
+      <c r="B60">
+        <v>5000</v>
+      </c>
+      <c r="C60" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1471.027</v>
+      </c>
+      <c r="E60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>10</v>
+      </c>
+      <c r="B61">
+        <v>10000</v>
+      </c>
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1468.8309999999999</v>
+      </c>
+      <c r="E61">
+        <v>8.9589999999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>20</v>
+      </c>
+      <c r="B62">
+        <v>1000</v>
+      </c>
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1896.287</v>
+      </c>
+      <c r="E62">
+        <v>19.18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>20</v>
+      </c>
+      <c r="B63">
+        <v>5000</v>
+      </c>
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1562.8710000000001</v>
+      </c>
+      <c r="E63">
+        <v>19.157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>20</v>
+      </c>
+      <c r="B64">
+        <v>10000</v>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1983.6205</v>
+      </c>
+      <c r="E64">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>5</v>
+      </c>
+      <c r="B65">
+        <v>1000</v>
+      </c>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>158.916</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>158.916</v>
+      </c>
+      <c r="H65">
+        <v>241.42099999999999</v>
+      </c>
+      <c r="I65">
+        <v>-4586.68</v>
+      </c>
+      <c r="K65">
+        <v>158.916</v>
+      </c>
+      <c r="L65">
+        <v>306.053</v>
+      </c>
+      <c r="M65">
+        <v>319.19600000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>5</v>
+      </c>
+      <c r="B66">
+        <v>5000</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>306.053</v>
+      </c>
+      <c r="E66">
+        <v>3.5209999999999999</v>
+      </c>
+      <c r="G66">
+        <v>306.053</v>
+      </c>
+      <c r="H66">
+        <v>648.56200000000001</v>
+      </c>
+      <c r="I66">
+        <v>340.93400000000003</v>
+      </c>
+      <c r="K66">
+        <v>241.42099999999999</v>
+      </c>
+      <c r="L66">
+        <v>648.56200000000001</v>
+      </c>
+      <c r="M66">
+        <v>-4182.99575</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>5</v>
+      </c>
+      <c r="B67">
+        <v>10000</v>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>319.19600000000003</v>
+      </c>
+      <c r="E67">
+        <v>3.5179999999999998</v>
+      </c>
+      <c r="G67">
+        <v>319.19600000000003</v>
+      </c>
+      <c r="H67">
+        <v>-4182.99575</v>
+      </c>
+      <c r="I67">
+        <v>272.452</v>
+      </c>
+      <c r="K67">
+        <v>-4586.68</v>
+      </c>
+      <c r="L67">
+        <v>340.93400000000003</v>
+      </c>
+      <c r="M67">
+        <v>272.452</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>10</v>
+      </c>
+      <c r="B68">
+        <v>1000</v>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>241.42099999999999</v>
+      </c>
+      <c r="E68">
+        <v>2.242</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>10</v>
+      </c>
+      <c r="B69">
+        <v>5000</v>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>648.56200000000001</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>10</v>
+      </c>
+      <c r="B70">
+        <v>10000</v>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>-4182.99575</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>20</v>
+      </c>
+      <c r="B71">
+        <v>1000</v>
+      </c>
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>-4586.68</v>
+      </c>
+      <c r="E71">
+        <v>2.5009999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>20</v>
+      </c>
+      <c r="B72">
+        <v>5000</v>
+      </c>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>340.93400000000003</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>20</v>
+      </c>
+      <c r="B73">
+        <v>10000</v>
+      </c>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>272.452</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
